--- a/classification/droptc/sentence/bert-base-uncased/unfreeze/87212562/prediction.xlsx
+++ b/classification/droptc/sentence/bert-base-uncased/unfreeze/87212562/prediction.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7093901038169861</v>
+        <v>0.999919056892395</v>
       </c>
     </row>
     <row r="3">
@@ -506,19 +506,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E3" t="b">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4711480438709259</v>
+        <v>0.9999548196792603</v>
       </c>
     </row>
     <row r="4">
@@ -534,19 +534,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9789178967475891</v>
+        <v>0.9999344348907471</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.997448205947876</v>
+        <v>0.9996578693389893</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6450905799865723</v>
+        <v>0.9999581575393677</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9978669881820679</v>
+        <v>0.9999547004699707</v>
       </c>
     </row>
     <row r="8">
@@ -646,19 +646,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9515554308891296</v>
+        <v>0.9999541044235229</v>
       </c>
     </row>
     <row r="9">
@@ -674,19 +674,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9824288487434387</v>
+        <v>0.99992835521698</v>
       </c>
     </row>
     <row r="10">
@@ -702,19 +702,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.98758465051651</v>
+        <v>0.9999541044235229</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9695677161216736</v>
+        <v>0.9998854398727417</v>
       </c>
     </row>
     <row r="12">
@@ -758,19 +758,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9872904419898987</v>
+        <v>0.9999566078186035</v>
       </c>
     </row>
     <row r="13">
@@ -786,19 +786,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9960656762123108</v>
+        <v>0.9997593760490417</v>
       </c>
     </row>
     <row r="14">
@@ -814,19 +814,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9755270481109619</v>
+        <v>0.9999223947525024</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.97124844789505</v>
+        <v>0.999742329120636</v>
       </c>
     </row>
     <row r="16">
@@ -870,19 +870,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7072619199752808</v>
+        <v>0.9999552965164185</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9979515671730042</v>
+        <v>0.999955415725708</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9964446425437927</v>
+        <v>0.9984815716743469</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9977743029594421</v>
+        <v>0.9999556541442871</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9936171770095825</v>
+        <v>0.9999511241912842</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9973412156105042</v>
+        <v>0.9999489784240723</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9972048401832581</v>
+        <v>0.9999527931213379</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7202057242393494</v>
+        <v>0.9999569654464722</v>
       </c>
     </row>
     <row r="24">
@@ -1094,19 +1094,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E24" t="b">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9875764846801758</v>
+        <v>0.9999560117721558</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6266365051269531</v>
+        <v>0.9994491934776306</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9834499955177307</v>
+        <v>0.9983543157577515</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9968547821044922</v>
+        <v>0.9999527931213379</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.997458279132843</v>
+        <v>0.9999548196792603</v>
       </c>
     </row>
     <row r="29">
@@ -1234,19 +1234,19 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E29" t="b">
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.865645170211792</v>
+        <v>0.9999566078186035</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9978600144386292</v>
+        <v>0.9999548196792603</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9964771866798401</v>
+        <v>0.9999572038650513</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9965993762016296</v>
+        <v>0.9999209642410278</v>
       </c>
     </row>
     <row r="33">
@@ -1346,19 +1346,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9977276921272278</v>
+        <v>0.9997988343238831</v>
       </c>
     </row>
     <row r="34">
@@ -1374,19 +1374,19 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E34" t="b">
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9979374408721924</v>
+        <v>0.9997827410697937</v>
       </c>
     </row>
     <row r="35">
@@ -1402,19 +1402,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8707637786865234</v>
+        <v>0.9998010993003845</v>
       </c>
     </row>
     <row r="36">
@@ -1430,19 +1430,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E36" t="b">
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9457610249519348</v>
+        <v>0.9999334812164307</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9912071824073792</v>
+        <v>0.9998024106025696</v>
       </c>
     </row>
     <row r="38">
@@ -1486,19 +1486,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E38" t="b">
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9815493226051331</v>
+        <v>0.9999525547027588</v>
       </c>
     </row>
     <row r="39">
@@ -1514,19 +1514,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9649529457092285</v>
+        <v>0.9926698207855225</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9967016577720642</v>
+        <v>0.9994356036186218</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9789178967475891</v>
+        <v>0.9999537467956543</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9936015009880066</v>
+        <v>0.9626423716545105</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9979515671730042</v>
+        <v>0.9997873902320862</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9824288487434387</v>
+        <v>0.999813973903656</v>
       </c>
     </row>
     <row r="45">
@@ -1682,19 +1682,19 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E45" t="b">
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9978418350219727</v>
+        <v>0.9997929930686951</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9789364337921143</v>
+        <v>0.9998113512992859</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9978652596473694</v>
+        <v>0.9870694875717163</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.5553681254386902</v>
+        <v>0.9997817873954773</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9973776340484619</v>
+        <v>0.9999573230743408</v>
       </c>
     </row>
     <row r="50">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1831,10 +1831,10 @@
         </is>
       </c>
       <c r="E50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8550294041633606</v>
+        <v>0.9997852444648743</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.997955322265625</v>
+        <v>0.9913697242736816</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9952362179756165</v>
+        <v>0.9999487400054932</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9970719814300537</v>
+        <v>0.9997852444648743</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3987615406513214</v>
+        <v>0.9997921586036682</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9973616003990173</v>
+        <v>0.9999581575393677</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9977739453315735</v>
+        <v>0.9999551773071289</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9970243573188782</v>
+        <v>0.9999570846557617</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9731342792510986</v>
+        <v>0.9997830986976624</v>
       </c>
     </row>
     <row r="59">
@@ -2074,19 +2074,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9875764846801758</v>
+        <v>0.9999494552612305</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9970772266387939</v>
+        <v>0.9999436140060425</v>
       </c>
     </row>
     <row r="61">
@@ -2130,19 +2130,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E61" t="b">
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.98747718334198</v>
+        <v>0.9999562501907349</v>
       </c>
     </row>
     <row r="62">
@@ -2158,19 +2158,19 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9667197465896606</v>
+        <v>0.9999576807022095</v>
       </c>
     </row>
     <row r="63">
@@ -2186,19 +2186,19 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E63" t="b">
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9974164962768555</v>
+        <v>0.9997678399085999</v>
       </c>
     </row>
     <row r="64">
@@ -2219,14 +2219,14 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9858976602554321</v>
+        <v>0.9997486472129822</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9910927414894104</v>
+        <v>0.999767005443573</v>
       </c>
     </row>
     <row r="66">
@@ -2270,19 +2270,19 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E66" t="b">
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9962131977081299</v>
+        <v>0.999767005443573</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9830805659294128</v>
+        <v>0.9997848868370056</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9978618025779724</v>
+        <v>0.999767005443573</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9976661205291748</v>
+        <v>0.999747097492218</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.997012734413147</v>
+        <v>0.9999539852142334</v>
       </c>
     </row>
     <row r="71">
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9972609281539917</v>
+        <v>0.9997736811637878</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9973940849304199</v>
+        <v>0.9999551773071289</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.966688334941864</v>
+        <v>0.999803364276886</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.997231662273407</v>
+        <v>0.9999479055404663</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9977453351020813</v>
+        <v>0.9999557733535767</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9657451510429382</v>
+        <v>0.999803364276886</v>
       </c>
     </row>
     <row r="77">
@@ -2578,19 +2578,19 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E77" t="b">
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9714996218681335</v>
+        <v>0.9999213218688965</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9976277947425842</v>
+        <v>0.999803364276886</v>
       </c>
     </row>
     <row r="79">
@@ -2634,19 +2634,19 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E79" t="b">
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.979215681552887</v>
+        <v>0.9999574422836304</v>
       </c>
     </row>
     <row r="80">
@@ -2662,19 +2662,19 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9685443639755249</v>
+        <v>0.9998063445091248</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9977276921272278</v>
+        <v>0.9999361038208008</v>
       </c>
     </row>
     <row r="82">
@@ -2718,19 +2718,19 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E82" t="b">
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9975824356079102</v>
+        <v>0.9998063445091248</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9964488744735718</v>
+        <v>0.9999432563781738</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.997028648853302</v>
+        <v>0.9999432563781738</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9962369203567505</v>
+        <v>0.9999556541442871</v>
       </c>
     </row>
     <row r="86">
@@ -2830,19 +2830,19 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E86" t="b">
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9973061084747314</v>
+        <v>0.9997926354408264</v>
       </c>
     </row>
     <row r="87">
@@ -2858,19 +2858,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E87" t="b">
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9871659874916077</v>
+        <v>0.9996059536933899</v>
       </c>
     </row>
     <row r="88">
@@ -2886,19 +2886,19 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E88" t="b">
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9969601631164551</v>
+        <v>0.9998041987419128</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9978898167610168</v>
+        <v>0.9999383687973022</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9977204203605652</v>
+        <v>0.9999569654464722</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9979515671730042</v>
+        <v>0.9999572038650513</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9978010058403015</v>
+        <v>0.9999575614929199</v>
       </c>
     </row>
     <row r="93">
@@ -3026,19 +3026,19 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E93" t="b">
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9851729869842529</v>
+        <v>0.9999574422836304</v>
       </c>
     </row>
     <row r="94">
@@ -3054,19 +3054,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E94" t="b">
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.97386634349823</v>
+        <v>0.9999568462371826</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9978669285774231</v>
+        <v>0.9999576807022095</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9950567483901978</v>
+        <v>0.9999502897262573</v>
       </c>
     </row>
     <row r="97">
@@ -3138,19 +3138,19 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9864315390586853</v>
+        <v>0.9990360736846924</v>
       </c>
     </row>
     <row r="98">
@@ -3166,19 +3166,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E98" t="b">
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.97124844789505</v>
+        <v>0.9999544620513916</v>
       </c>
     </row>
     <row r="99">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9768944382667542</v>
+        <v>0.9440867304801941</v>
       </c>
     </row>
     <row r="100">
@@ -3222,19 +3222,19 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E100" t="b">
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.8024605512619019</v>
+        <v>0.9999562501907349</v>
       </c>
     </row>
     <row r="101">
@@ -3250,19 +3250,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E101" t="b">
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9830643534660339</v>
+        <v>0.9999562501907349</v>
       </c>
     </row>
     <row r="102">
@@ -3278,19 +3278,19 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E102" t="b">
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9966129660606384</v>
+        <v>0.9987099170684814</v>
       </c>
     </row>
     <row r="103">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9890439510345459</v>
+        <v>0.9999059438705444</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.996871292591095</v>
+        <v>0.9999568462371826</v>
       </c>
     </row>
     <row r="105">
@@ -3362,19 +3362,19 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.5203442573547363</v>
+        <v>0.9997850060462952</v>
       </c>
     </row>
     <row r="106">
@@ -3390,19 +3390,19 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E106" t="b">
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9797130823135376</v>
+        <v>0.9999560117721558</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9973422884941101</v>
+        <v>0.9997958540916443</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9938085675239563</v>
+        <v>0.9996708631515503</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9978466033935547</v>
+        <v>0.9999548196792603</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9977732300758362</v>
+        <v>0.9999548196792603</v>
       </c>
     </row>
     <row r="111">
@@ -3530,19 +3530,19 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E111" t="b">
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9976601600646973</v>
+        <v>0.9997981190681458</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.8712320327758789</v>
+        <v>0.9997871518135071</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E113" t="b">
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9978551268577576</v>
+        <v>0.9997953772544861</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.995879054069519</v>
+        <v>0.9999493360519409</v>
       </c>
     </row>
     <row r="115">
@@ -3642,19 +3642,19 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E115" t="b">
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.7581758499145508</v>
+        <v>0.9997720122337341</v>
       </c>
     </row>
     <row r="116">
@@ -3670,19 +3670,19 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E116" t="b">
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.8476037383079529</v>
+        <v>0.9999309778213501</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9968132376670837</v>
+        <v>0.9999507665634155</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9924822449684143</v>
+        <v>0.9562305212020874</v>
       </c>
     </row>
     <row r="119">
@@ -3754,19 +3754,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E119" t="b">
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9657451510429382</v>
+        <v>0.9980742931365967</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9965401887893677</v>
+        <v>0.9999548196792603</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9973422884941101</v>
+        <v>0.9997517466545105</v>
       </c>
     </row>
     <row r="122">
@@ -3838,19 +3838,19 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.4785701334476471</v>
+        <v>0.9999531507492065</v>
       </c>
     </row>
     <row r="123">
@@ -3866,19 +3866,19 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E123" t="b">
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9976947903633118</v>
+        <v>0.9997517466545105</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9979515671730042</v>
+        <v>0.9999531507492065</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9858976602554321</v>
+        <v>0.9997517466545105</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.996881365776062</v>
+        <v>0.9999547004699707</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9423772692680359</v>
+        <v>0.9743857979774475</v>
       </c>
     </row>
     <row r="128">
@@ -4006,19 +4006,19 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E128" t="b">
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.6289852261543274</v>
+        <v>0.9999548196792603</v>
       </c>
     </row>
     <row r="129">
@@ -4034,19 +4034,19 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E129" t="b">
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9876811504364014</v>
+        <v>0.9970846772193909</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.977610170841217</v>
+        <v>0.9999203681945801</v>
       </c>
     </row>
     <row r="131">
@@ -4095,14 +4095,14 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9318464994430542</v>
+        <v>0.9999543428421021</v>
       </c>
     </row>
     <row r="132">
@@ -4118,19 +4118,19 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E132" t="b">
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9976443648338318</v>
+        <v>0.9996370077133179</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9740362763404846</v>
+        <v>0.9999481439590454</v>
       </c>
     </row>
     <row r="134">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4183,10 +4183,10 @@
         </is>
       </c>
       <c r="E134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9967936873435974</v>
+        <v>0.9999556541442871</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9972923398017883</v>
+        <v>0.9999575614929199</v>
       </c>
     </row>
     <row r="136">
@@ -4235,14 +4235,14 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9965440630912781</v>
+        <v>0.9997929930686951</v>
       </c>
     </row>
     <row r="137">
@@ -4258,19 +4258,19 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E137" t="b">
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9858287572860718</v>
+        <v>0.9999560117721558</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9979515671730042</v>
+        <v>0.9999440908432007</v>
       </c>
     </row>
     <row r="139">
@@ -4314,19 +4314,19 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E139" t="b">
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9797130823135376</v>
+        <v>0.9999542236328125</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.997465968132019</v>
+        <v>0.9999543428421021</v>
       </c>
     </row>
     <row r="141">
@@ -4375,14 +4375,14 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.997965931892395</v>
+        <v>0.9987560510635376</v>
       </c>
     </row>
     <row r="142">
@@ -4398,19 +4398,19 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E142" t="b">
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9745893478393555</v>
+        <v>0.9999548196792603</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9970222115516663</v>
+        <v>0.999811589717865</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9975935816764832</v>
+        <v>0.9999556541442871</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9727386236190796</v>
+        <v>0.999811589717865</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9977715611457825</v>
+        <v>0.9999552965164185</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9970719814300537</v>
+        <v>0.999747097492218</v>
       </c>
     </row>
     <row r="148">
@@ -4566,19 +4566,19 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9866219162940979</v>
+        <v>0.9999550580978394</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9979515671730042</v>
+        <v>0.9997625946998596</v>
       </c>
     </row>
     <row r="150">
@@ -4627,14 +4627,14 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9677311182022095</v>
+        <v>0.9904802441596985</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9958139061927795</v>
+        <v>0.9999548196792603</v>
       </c>
     </row>
     <row r="152">
@@ -4678,19 +4678,19 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E152" t="b">
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9979515671730042</v>
+        <v>0.9885380268096924</v>
       </c>
     </row>
     <row r="153">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4715,10 +4715,10 @@
         </is>
       </c>
       <c r="E153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9896358847618103</v>
+        <v>0.9999576807022095</v>
       </c>
     </row>
     <row r="154">
@@ -4734,19 +4734,19 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E154" t="b">
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9973422884941101</v>
+        <v>0.999670147895813</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9977972507476807</v>
+        <v>0.9999568462371826</v>
       </c>
     </row>
     <row r="156">
@@ -4790,19 +4790,19 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E156" t="b">
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9975548386573792</v>
+        <v>0.9996652603149414</v>
       </c>
     </row>
     <row r="157">
@@ -4818,19 +4818,19 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E157" t="b">
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9874593019485474</v>
+        <v>0.9999562501907349</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9972233772277832</v>
+        <v>0.9996742010116577</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9971961975097656</v>
+        <v>0.9999558925628662</v>
       </c>
     </row>
     <row r="160">
@@ -4902,19 +4902,19 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E160" t="b">
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9975455403327942</v>
+        <v>0.9995641112327576</v>
       </c>
     </row>
     <row r="161">
@@ -4930,19 +4930,19 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E161" t="b">
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.4587803483009338</v>
+        <v>0.9999535083770752</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9822768568992615</v>
+        <v>0.9963732361793518</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9976599216461182</v>
+        <v>0.9999539852142334</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9978467226028442</v>
+        <v>0.9997872710227966</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9978880286216736</v>
+        <v>0.9999552965164185</v>
       </c>
     </row>
     <row r="166">
@@ -5070,19 +5070,19 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E166" t="b">
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9719713926315308</v>
+        <v>0.9998933076858521</v>
       </c>
     </row>
     <row r="167">
@@ -5098,19 +5098,19 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E167" t="b">
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9977617263793945</v>
+        <v>0.9998055100440979</v>
       </c>
     </row>
     <row r="168">
@@ -5131,14 +5131,14 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9949997663497925</v>
+        <v>0.8237403035163879</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9977008700370789</v>
+        <v>0.9999548196792603</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9933179616928101</v>
+        <v>0.9998055100440979</v>
       </c>
     </row>
     <row r="171">
@@ -5215,14 +5215,14 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9855620265007019</v>
+        <v>0.9960640072822571</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9978735446929932</v>
+        <v>0.9999548196792603</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9972662925720215</v>
+        <v>0.9999541044235229</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9979515671730042</v>
+        <v>0.9999529123306274</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9977684020996094</v>
+        <v>0.9999541044235229</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9973616003990173</v>
+        <v>0.9999541044235229</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9971185922622681</v>
+        <v>0.9999529123306274</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9974234104156494</v>
+        <v>0.9999536275863647</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9964771866798401</v>
+        <v>0.9999569654464722</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9585577249526978</v>
+        <v>0.9999505281448364</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9978664517402649</v>
+        <v>0.999943733215332</v>
       </c>
     </row>
     <row r="182">
@@ -5518,19 +5518,19 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E182" t="b">
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9871659874916077</v>
+        <v>0.9999556541442871</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9871178269386292</v>
+        <v>0.9997835755348206</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9778931736946106</v>
+        <v>0.9999585151672363</v>
       </c>
     </row>
     <row r="185">
@@ -5607,14 +5607,14 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9308179020881653</v>
+        <v>0.9999569654464722</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E186" t="b">
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9871659874916077</v>
+        <v>0.9999569654464722</v>
       </c>
     </row>
     <row r="187">
@@ -5658,19 +5658,19 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E187" t="b">
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.7011100649833679</v>
+        <v>0.999955415725708</v>
       </c>
     </row>
     <row r="188">
@@ -5686,19 +5686,19 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E188" t="b">
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9579635262489319</v>
+        <v>0.9999541044235229</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9970037341117859</v>
+        <v>0.9999455213546753</v>
       </c>
     </row>
     <row r="190">
@@ -5742,19 +5742,19 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E190" t="b">
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9732807874679565</v>
+        <v>0.9999541044235229</v>
       </c>
     </row>
     <row r="191">
@@ -5770,19 +5770,19 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.8454475402832031</v>
+        <v>0.9971234202384949</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.8891765475273132</v>
+        <v>0.999955415725708</v>
       </c>
     </row>
     <row r="193">
@@ -5826,19 +5826,19 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E193" t="b">
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9797130823135376</v>
+        <v>0.9999539852142334</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9965619444847107</v>
+        <v>0.999762237071991</v>
       </c>
     </row>
     <row r="195">
@@ -5882,19 +5882,19 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E195" t="b">
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9956242442131042</v>
+        <v>0.9997410178184509</v>
       </c>
     </row>
     <row r="196">
@@ -5910,19 +5910,19 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E196" t="b">
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.965264618396759</v>
+        <v>0.9999581575393677</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9975817203521729</v>
+        <v>0.9999520778656006</v>
       </c>
     </row>
     <row r="198">
@@ -5966,19 +5966,19 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E198" t="b">
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.7006223201751709</v>
+        <v>0.9999518394470215</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.8812921047210693</v>
+        <v>0.9999572038650513</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.8818689584732056</v>
+        <v>0.656716525554657</v>
       </c>
     </row>
     <row r="201">
@@ -6050,19 +6050,19 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E201" t="b">
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9875764846801758</v>
+        <v>0.9999525547027588</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9965807795524597</v>
+        <v>0.9999542236328125</v>
       </c>
     </row>
     <row r="203">
@@ -6106,19 +6106,19 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E203" t="b">
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9717328548431396</v>
+        <v>0.9999538660049438</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9429764151573181</v>
+        <v>0.9997959733009338</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9978355765342712</v>
+        <v>0.9995519518852234</v>
       </c>
     </row>
     <row r="206">
@@ -6190,19 +6190,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.8896757960319519</v>
+        <v>0.9999551773071289</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E207" t="b">
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.9918459057807922</v>
+        <v>0.9991195797920227</v>
       </c>
     </row>
     <row r="208">
@@ -6246,19 +6246,19 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E208" t="b">
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9050390720367432</v>
+        <v>0.9999561309814453</v>
       </c>
     </row>
     <row r="209">
@@ -6274,19 +6274,19 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E209" t="b">
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9979515671730042</v>
+        <v>0.9934034943580627</v>
       </c>
     </row>
     <row r="210">
@@ -6302,19 +6302,19 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E210" t="b">
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9753026962280273</v>
+        <v>0.9999493360519409</v>
       </c>
     </row>
   </sheetData>
